--- a/backend/app01/BM和VM机器信息明细表.xlsx
+++ b/backend/app01/BM和VM机器信息明细表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="22368" windowHeight="9300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="物理机BM" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="268">
   <si>
     <t>物理机名称</t>
   </si>
@@ -93,6 +93,9 @@
     <t>平均剩余率</t>
   </si>
   <si>
+    <t>权重</t>
+  </si>
+  <si>
     <t>BM-1</t>
   </si>
   <si>
@@ -186,6 +189,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>内存总数</t>
     </r>
     <r>
@@ -1874,13 +1883,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="11.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="8.33333333333333" customWidth="1"/>
@@ -1892,7 +1901,7 @@
     <col min="8" max="8" width="13.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1917,10 +1926,13 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="7">
         <v>12516</v>
@@ -1947,10 +1959,13 @@
         <f>AVERAGE(E2:G2)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="7">
         <v>12516</v>
@@ -1977,10 +1992,13 @@
         <f t="shared" ref="H3:H21" si="1">AVERAGE(E3:G3)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="7">
         <v>12516</v>
@@ -2007,10 +2025,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="7">
         <v>12516</v>
@@ -2037,10 +2058,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="7">
         <v>12516</v>
@@ -2067,10 +2091,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="7">
         <v>12516</v>
@@ -2097,10 +2124,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="7">
         <v>12516</v>
@@ -2127,10 +2157,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="7">
         <v>12516</v>
@@ -2157,10 +2190,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="7">
         <v>12516</v>
@@ -2187,10 +2223,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="7">
         <v>12516</v>
@@ -2217,10 +2256,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="7">
         <v>12516</v>
@@ -2247,10 +2289,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="7">
         <v>12516</v>
@@ -2277,10 +2322,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="7">
         <v>12516</v>
@@ -2307,10 +2355,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="7">
         <v>12516</v>
@@ -2337,10 +2388,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="7">
         <v>12516</v>
@@ -2367,10 +2421,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="7">
         <v>12516</v>
@@ -2397,10 +2454,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="7">
         <v>12516</v>
@@ -2427,10 +2487,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="7">
         <v>12516</v>
@@ -2457,10 +2520,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="7">
         <v>12516</v>
@@ -2487,10 +2553,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="7">
         <v>12516</v>
@@ -2516,6 +2585,9 @@
       <c r="H21">
         <f t="shared" si="1"/>
         <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2529,7 +2601,7 @@
   <sheetPr/>
   <dimension ref="A1:K230"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -2550,42 +2622,42 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3">
         <v>2465</v>
@@ -2627,7 +2699,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3">
         <v>2265</v>
@@ -2669,7 +2741,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3">
         <v>2265</v>
@@ -2711,7 +2783,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="3">
         <v>2265</v>
@@ -2753,7 +2825,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="3">
         <v>2065</v>
@@ -2795,7 +2867,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="3">
         <v>2065</v>
@@ -2837,7 +2909,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="3">
         <v>1965</v>
@@ -2879,7 +2951,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="3">
         <v>1865</v>
@@ -2921,7 +2993,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="3">
         <v>1865</v>
@@ -2963,7 +3035,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" s="3">
         <v>1865</v>
@@ -3005,7 +3077,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" s="3">
         <v>1865</v>
@@ -3047,7 +3119,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" s="3">
         <v>1865</v>
@@ -3089,7 +3161,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3">
         <v>1865</v>
@@ -3131,7 +3203,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" s="3">
         <v>1865</v>
@@ -3173,7 +3245,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" s="3">
         <v>1865</v>
@@ -3215,7 +3287,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" s="3">
         <v>1789</v>
@@ -3257,7 +3329,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" s="3">
         <v>1789</v>
@@ -3299,7 +3371,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" s="3">
         <v>1765</v>
@@ -3341,7 +3413,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="3">
         <v>1665</v>
@@ -3383,7 +3455,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" s="3">
         <v>2065</v>
@@ -3425,7 +3497,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" s="3">
         <v>1565</v>
@@ -3467,7 +3539,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" s="3">
         <v>1489</v>
@@ -3509,7 +3581,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" s="3">
         <v>1265</v>
@@ -3551,7 +3623,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B25" s="3">
         <v>1265</v>
@@ -3593,7 +3665,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B26" s="3">
         <v>1265</v>
@@ -3635,7 +3707,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27" s="3">
         <v>1265</v>
@@ -3677,7 +3749,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B28" s="3">
         <v>1265</v>
@@ -3719,7 +3791,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B29" s="3">
         <v>1265</v>
@@ -3761,7 +3833,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B30" s="3">
         <v>1265</v>
@@ -3803,7 +3875,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B31" s="3">
         <v>1265</v>
@@ -3845,7 +3917,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B32" s="3">
         <v>1065</v>
@@ -3887,7 +3959,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B33" s="3">
         <v>1065</v>
@@ -3929,7 +4001,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B34" s="3">
         <v>1065</v>
@@ -3971,7 +4043,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B35" s="3">
         <v>1865</v>
@@ -4013,7 +4085,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B36" s="3">
         <v>1865</v>
@@ -4055,7 +4127,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B37" s="3">
         <v>1765</v>
@@ -4097,7 +4169,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B38" s="3">
         <v>1265</v>
@@ -4139,7 +4211,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B39" s="3">
         <v>1265</v>
@@ -4181,7 +4253,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B40" s="3">
         <v>765</v>
@@ -4223,7 +4295,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B41" s="3">
         <v>765</v>
@@ -4265,7 +4337,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B42" s="3">
         <v>765</v>
@@ -4307,7 +4379,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B43" s="3">
         <v>765</v>
@@ -4349,7 +4421,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B44" s="3">
         <v>765</v>
@@ -4391,7 +4463,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B45" s="3">
         <v>765</v>
@@ -4433,7 +4505,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B46" s="3">
         <v>765</v>
@@ -4475,7 +4547,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B47" s="3">
         <v>765</v>
@@ -4517,7 +4589,7 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B48" s="3">
         <v>765</v>
@@ -4559,7 +4631,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B49" s="3">
         <v>765</v>
@@ -4601,7 +4673,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B50" s="3">
         <v>765</v>
@@ -4643,7 +4715,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B51" s="3">
         <v>765</v>
@@ -4685,7 +4757,7 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B52" s="3">
         <v>765</v>
@@ -4727,7 +4799,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B53" s="3">
         <v>765</v>
@@ -4769,7 +4841,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" s="3">
         <v>765</v>
@@ -4811,7 +4883,7 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B55" s="3">
         <v>765</v>
@@ -4853,7 +4925,7 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B56" s="3">
         <v>765</v>
@@ -4895,7 +4967,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B57" s="3">
         <v>765</v>
@@ -4937,7 +5009,7 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B58" s="3">
         <v>765</v>
@@ -4979,7 +5051,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B59" s="3">
         <v>765</v>
@@ -5021,7 +5093,7 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B60" s="3">
         <v>765</v>
@@ -5063,7 +5135,7 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B61" s="3">
         <v>765</v>
@@ -5105,7 +5177,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B62" s="3">
         <v>765</v>
@@ -5147,7 +5219,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B63" s="3">
         <v>765</v>
@@ -5189,7 +5261,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B64" s="3">
         <v>765</v>
@@ -5231,7 +5303,7 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B65" s="3">
         <v>1891</v>
@@ -5273,7 +5345,7 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B66" s="3">
         <v>1765</v>
@@ -5315,7 +5387,7 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B67" s="3">
         <v>465</v>
@@ -5357,7 +5429,7 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B68" s="3">
         <v>465</v>
@@ -5399,7 +5471,7 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B69" s="3">
         <v>1265</v>
@@ -5441,7 +5513,7 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B70" s="3">
         <v>1265</v>
@@ -5483,7 +5555,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B71" s="3">
         <v>1265</v>
@@ -5525,7 +5597,7 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B72" s="3">
         <v>2033</v>
@@ -5567,7 +5639,7 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B73" s="3">
         <v>2033</v>
@@ -5609,7 +5681,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B74" s="3">
         <v>2033</v>
@@ -5651,7 +5723,7 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B75" s="3">
         <v>765</v>
@@ -5693,7 +5765,7 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B76" s="3">
         <v>765</v>
@@ -5735,7 +5807,7 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B77" s="3">
         <v>1933</v>
@@ -5777,7 +5849,7 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B78" s="3">
         <v>649</v>
@@ -5819,7 +5891,7 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B79" s="3">
         <v>649</v>
@@ -5861,7 +5933,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B80" s="3">
         <v>1265</v>
@@ -5903,7 +5975,7 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B81" s="3">
         <v>1265</v>
@@ -5945,7 +6017,7 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B82" s="3">
         <v>765</v>
@@ -5987,7 +6059,7 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B83" s="3">
         <v>765</v>
@@ -6029,7 +6101,7 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B84" s="3">
         <v>765</v>
@@ -6071,7 +6143,7 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B85" s="3">
         <v>765</v>
@@ -6113,7 +6185,7 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B86" s="3">
         <v>1533</v>
@@ -6155,7 +6227,7 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B87" s="3">
         <v>1333</v>
@@ -6197,7 +6269,7 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B88" s="3">
         <v>1233</v>
@@ -6239,7 +6311,7 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B89" s="3">
         <v>1233</v>
@@ -6281,7 +6353,7 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B90" s="3">
         <v>1233</v>
@@ -6323,7 +6395,7 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B91" s="3">
         <v>1233</v>
@@ -6365,7 +6437,7 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B92" s="3">
         <v>1233</v>
@@ -6407,7 +6479,7 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B93" s="3">
         <v>1233</v>
@@ -6449,7 +6521,7 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B94" s="3">
         <v>1233</v>
@@ -6491,7 +6563,7 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B95" s="3">
         <v>1233</v>
@@ -6533,7 +6605,7 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B96" s="3">
         <v>1233</v>
@@ -6575,7 +6647,7 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B97" s="3">
         <v>1233</v>
@@ -6617,7 +6689,7 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B98" s="3">
         <v>1233</v>
@@ -6659,7 +6731,7 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B99" s="3">
         <v>1233</v>
@@ -6701,7 +6773,7 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B100" s="3">
         <v>1233</v>
@@ -6743,7 +6815,7 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B101" s="3">
         <v>1233</v>
@@ -6785,7 +6857,7 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B102" s="3">
         <v>1233</v>
@@ -6827,7 +6899,7 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B103" s="3">
         <v>1233</v>
@@ -6869,7 +6941,7 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B104" s="3">
         <v>1233</v>
@@ -6911,7 +6983,7 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B105" s="3">
         <v>1233</v>
@@ -6953,7 +7025,7 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B106" s="3">
         <v>1233</v>
@@ -6995,7 +7067,7 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B107" s="3">
         <v>1233</v>
@@ -7037,7 +7109,7 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B108" s="3">
         <v>1233</v>
@@ -7079,7 +7151,7 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B109" s="3">
         <v>1233</v>
@@ -7121,7 +7193,7 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B110" s="3">
         <v>1233</v>
@@ -7163,7 +7235,7 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B111" s="3">
         <v>1233</v>
@@ -7205,7 +7277,7 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B112" s="3">
         <v>1233</v>
@@ -7247,7 +7319,7 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B113" s="3">
         <v>765</v>
@@ -7289,7 +7361,7 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B114" s="3">
         <v>765</v>
@@ -7331,7 +7403,7 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B115" s="3">
         <v>1033</v>
@@ -7373,7 +7445,7 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B116" s="3">
         <v>1033</v>
@@ -7415,7 +7487,7 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B117" s="3">
         <v>933</v>
@@ -7457,7 +7529,7 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B118" s="3">
         <v>433</v>
@@ -7499,7 +7571,7 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B119" s="3">
         <v>433</v>
@@ -7541,7 +7613,7 @@
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B120" s="3">
         <v>733</v>
@@ -7583,7 +7655,7 @@
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B121" s="3">
         <v>733</v>
@@ -7625,7 +7697,7 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B122" s="3">
         <v>733</v>
@@ -7667,7 +7739,7 @@
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B123" s="3">
         <v>733</v>
@@ -7709,7 +7781,7 @@
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B124" s="3">
         <v>733</v>
@@ -7751,7 +7823,7 @@
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B125" s="3">
         <v>733</v>
@@ -7793,7 +7865,7 @@
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B126" s="3">
         <v>733</v>
@@ -7835,7 +7907,7 @@
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B127" s="3">
         <v>733</v>
@@ -7877,7 +7949,7 @@
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B128" s="3">
         <v>733</v>
@@ -7919,7 +7991,7 @@
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B129" s="3">
         <v>733</v>
@@ -7961,7 +8033,7 @@
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B130" s="3">
         <v>733</v>
@@ -8003,7 +8075,7 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B131" s="3">
         <v>733</v>
@@ -8045,7 +8117,7 @@
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B132" s="3">
         <v>733</v>
@@ -8087,7 +8159,7 @@
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B133" s="3">
         <v>733</v>
@@ -8129,7 +8201,7 @@
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B134" s="3">
         <v>733</v>
@@ -8171,7 +8243,7 @@
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B135" s="3">
         <v>733</v>
@@ -8213,7 +8285,7 @@
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B136" s="3">
         <v>733</v>
@@ -8255,7 +8327,7 @@
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B137" s="3">
         <v>733</v>
@@ -8297,7 +8369,7 @@
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B138" s="3">
         <v>733</v>
@@ -8339,7 +8411,7 @@
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B139" s="3">
         <v>733</v>
@@ -8381,7 +8453,7 @@
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B140" s="3">
         <v>733</v>
@@ -8423,7 +8495,7 @@
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B141" s="3">
         <v>733</v>
@@ -8465,7 +8537,7 @@
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B142" s="3">
         <v>733</v>
@@ -8507,7 +8579,7 @@
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B143" s="3">
         <v>733</v>
@@ -8549,7 +8621,7 @@
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B144" s="3">
         <v>733</v>
@@ -8591,7 +8663,7 @@
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B145" s="3">
         <v>733</v>
@@ -8633,7 +8705,7 @@
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B146" s="3">
         <v>733</v>
@@ -8675,7 +8747,7 @@
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B147" s="3">
         <v>733</v>
@@ -8717,7 +8789,7 @@
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B148" s="3">
         <v>733</v>
@@ -8759,7 +8831,7 @@
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B149" s="3">
         <v>733</v>
@@ -8801,7 +8873,7 @@
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B150" s="3">
         <v>733</v>
@@ -8843,7 +8915,7 @@
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B151" s="3">
         <v>733</v>
@@ -8885,7 +8957,7 @@
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B152" s="3">
         <v>733</v>
@@ -8927,7 +8999,7 @@
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B153" s="3">
         <v>733</v>
@@ -8969,7 +9041,7 @@
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B154" s="3">
         <v>733</v>
@@ -9011,7 +9083,7 @@
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B155" s="3">
         <v>733</v>
@@ -9053,7 +9125,7 @@
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B156" s="3">
         <v>733</v>
@@ -9095,7 +9167,7 @@
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B157" s="3">
         <v>733</v>
@@ -9137,7 +9209,7 @@
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B158" s="3">
         <v>733</v>
@@ -9179,7 +9251,7 @@
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B159" s="3">
         <v>733</v>
@@ -9221,7 +9293,7 @@
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B160" s="3">
         <v>733</v>
@@ -9263,7 +9335,7 @@
     </row>
     <row r="161" spans="1:11">
       <c r="A161" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B161" s="3">
         <v>733</v>
@@ -9305,7 +9377,7 @@
     </row>
     <row r="162" spans="1:11">
       <c r="A162" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B162" s="3">
         <v>733</v>
@@ -9347,7 +9419,7 @@
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B163" s="3">
         <v>733</v>
@@ -9389,7 +9461,7 @@
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B164" s="3">
         <v>733</v>
@@ -9431,7 +9503,7 @@
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B165" s="3">
         <v>733</v>
@@ -9473,7 +9545,7 @@
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B166" s="3">
         <v>733</v>
@@ -9515,7 +9587,7 @@
     </row>
     <row r="167" spans="1:11">
       <c r="A167" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B167" s="3">
         <v>733</v>
@@ -9557,7 +9629,7 @@
     </row>
     <row r="168" spans="1:11">
       <c r="A168" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B168" s="3">
         <v>733</v>
@@ -9599,7 +9671,7 @@
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B169" s="3">
         <v>733</v>
@@ -9641,7 +9713,7 @@
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B170" s="3">
         <v>633</v>
@@ -9683,7 +9755,7 @@
     </row>
     <row r="171" spans="1:11">
       <c r="A171" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B171" s="3">
         <v>433</v>
@@ -9725,7 +9797,7 @@
     </row>
     <row r="172" spans="1:11">
       <c r="A172" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B172" s="3">
         <v>433</v>
@@ -9767,7 +9839,7 @@
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B173" s="3">
         <v>433</v>
@@ -9809,7 +9881,7 @@
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B174" s="3">
         <v>433</v>
@@ -9851,7 +9923,7 @@
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B175" s="3">
         <v>433</v>
@@ -9893,7 +9965,7 @@
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B176" s="3">
         <v>433</v>
@@ -9935,7 +10007,7 @@
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B177" s="3">
         <v>1217</v>
@@ -9977,7 +10049,7 @@
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B178" s="3">
         <v>717</v>
@@ -10019,7 +10091,7 @@
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B179" s="3">
         <v>717</v>
@@ -10061,7 +10133,7 @@
     </row>
     <row r="180" spans="1:11">
       <c r="A180" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B180" s="3">
         <v>717</v>
@@ -10103,7 +10175,7 @@
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B181" s="3">
         <v>717</v>
@@ -10145,7 +10217,7 @@
     </row>
     <row r="182" spans="1:11">
       <c r="A182" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B182" s="3">
         <v>717</v>
@@ -10187,7 +10259,7 @@
     </row>
     <row r="183" spans="1:11">
       <c r="A183" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B183" s="3">
         <v>717</v>
@@ -10229,7 +10301,7 @@
     </row>
     <row r="184" spans="1:11">
       <c r="A184" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B184" s="3">
         <v>717</v>
@@ -10271,7 +10343,7 @@
     </row>
     <row r="185" spans="1:11">
       <c r="A185" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B185" s="3">
         <v>717</v>
@@ -10313,7 +10385,7 @@
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B186" s="3">
         <v>717</v>
@@ -10355,7 +10427,7 @@
     </row>
     <row r="187" spans="1:11">
       <c r="A187" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B187" s="3">
         <v>717</v>
@@ -10397,7 +10469,7 @@
     </row>
     <row r="188" spans="1:11">
       <c r="A188" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B188" s="3">
         <v>717</v>
@@ -10439,7 +10511,7 @@
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B189" s="3">
         <v>717</v>
@@ -10481,7 +10553,7 @@
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B190" s="3">
         <v>717</v>
@@ -10523,7 +10595,7 @@
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B191" s="3">
         <v>717</v>
@@ -10565,7 +10637,7 @@
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B192" s="3">
         <v>717</v>
@@ -10607,7 +10679,7 @@
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B193" s="3">
         <v>717</v>
@@ -10649,7 +10721,7 @@
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B194" s="3">
         <v>717</v>
@@ -10691,7 +10763,7 @@
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B195" s="3">
         <v>717</v>
@@ -10733,7 +10805,7 @@
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B196" s="3">
         <v>717</v>
@@ -10775,7 +10847,7 @@
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B197" s="3">
         <v>717</v>
@@ -10817,7 +10889,7 @@
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B198" s="3">
         <v>717</v>
@@ -10859,7 +10931,7 @@
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B199" s="3">
         <v>717</v>
@@ -10901,7 +10973,7 @@
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B200" s="3">
         <v>717</v>
@@ -10943,7 +11015,7 @@
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B201" s="3">
         <v>717</v>
@@ -10985,7 +11057,7 @@
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B202" s="3">
         <v>717</v>
@@ -11027,7 +11099,7 @@
     </row>
     <row r="203" spans="1:11">
       <c r="A203" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B203" s="3">
         <v>617</v>
@@ -11069,7 +11141,7 @@
     </row>
     <row r="204" spans="1:11">
       <c r="A204" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B204" s="3">
         <v>617</v>
@@ -11111,7 +11183,7 @@
     </row>
     <row r="205" spans="1:11">
       <c r="A205" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B205" s="3">
         <v>617</v>
@@ -11153,7 +11225,7 @@
     </row>
     <row r="206" spans="1:11">
       <c r="A206" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B206" s="3">
         <v>417</v>
@@ -11195,7 +11267,7 @@
     </row>
     <row r="207" spans="1:11">
       <c r="A207" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B207" s="3">
         <v>417</v>
@@ -11237,7 +11309,7 @@
     </row>
     <row r="208" spans="1:11">
       <c r="A208" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B208" s="3">
         <v>417</v>
@@ -11279,7 +11351,7 @@
     </row>
     <row r="209" spans="1:11">
       <c r="A209" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B209" s="3">
         <v>417</v>
@@ -11321,7 +11393,7 @@
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B210" s="3">
         <v>417</v>
@@ -11363,7 +11435,7 @@
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B211" s="3">
         <v>417</v>
@@ -11405,7 +11477,7 @@
     </row>
     <row r="212" spans="1:11">
       <c r="A212" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B212" s="3">
         <v>417</v>
@@ -11447,7 +11519,7 @@
     </row>
     <row r="213" spans="1:11">
       <c r="A213" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B213" s="3">
         <v>417</v>
@@ -11489,7 +11561,7 @@
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B214" s="3">
         <v>417</v>
@@ -11531,7 +11603,7 @@
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B215" s="3">
         <v>417</v>
@@ -11573,7 +11645,7 @@
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B216" s="3">
         <v>417</v>
@@ -11615,7 +11687,7 @@
     </row>
     <row r="217" spans="1:11">
       <c r="A217" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B217" s="3">
         <v>417</v>
@@ -11657,7 +11729,7 @@
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B218" s="3">
         <v>417</v>
@@ -11699,7 +11771,7 @@
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B219" s="3">
         <v>417</v>
@@ -11741,7 +11813,7 @@
     </row>
     <row r="220" spans="1:11">
       <c r="A220" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B220" s="3">
         <v>417</v>
@@ -11783,7 +11855,7 @@
     </row>
     <row r="221" spans="1:11">
       <c r="A221" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B221" s="3">
         <v>417</v>
@@ -11825,7 +11897,7 @@
     </row>
     <row r="222" spans="1:11">
       <c r="A222" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B222" s="3">
         <v>417</v>
@@ -11867,7 +11939,7 @@
     </row>
     <row r="223" spans="1:11">
       <c r="A223" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B223" s="3">
         <v>417</v>
@@ -11909,7 +11981,7 @@
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B224" s="3">
         <v>417</v>
@@ -11951,7 +12023,7 @@
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B225" s="3">
         <v>417</v>
@@ -11993,7 +12065,7 @@
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B226" s="3">
         <v>417</v>
@@ -12035,7 +12107,7 @@
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B227" s="3">
         <v>317</v>
@@ -12077,7 +12149,7 @@
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B228" s="3">
         <v>317</v>
@@ -12119,7 +12191,7 @@
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B229" s="3">
         <v>317</v>
@@ -12161,7 +12233,7 @@
     </row>
     <row r="230" spans="1:11">
       <c r="A230" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B230" s="3">
         <v>317</v>
@@ -12228,18 +12300,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B2" s="3">
         <v>1333</v>
@@ -12250,7 +12322,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B3" s="3">
         <v>765</v>
@@ -12261,7 +12333,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3">
         <v>1891</v>
@@ -12272,7 +12344,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B5" s="3">
         <v>417</v>
@@ -12283,7 +12355,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" s="3">
         <v>1265</v>
@@ -12294,7 +12366,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B7" s="3">
         <v>417</v>
@@ -12305,7 +12377,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B8" s="3">
         <v>765</v>
@@ -12316,7 +12388,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B9" s="3">
         <v>765</v>
@@ -12327,7 +12399,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B10" s="3">
         <v>733</v>
@@ -12338,7 +12410,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B11" s="3">
         <v>733</v>
@@ -12349,7 +12421,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B12" s="3">
         <v>417</v>
@@ -12360,7 +12432,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B13" s="3">
         <v>733</v>
@@ -12371,7 +12443,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B14" s="3">
         <v>717</v>
@@ -12382,7 +12454,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B15" s="3">
         <v>733</v>
@@ -12393,7 +12465,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="3">
         <v>2265</v>
@@ -12404,7 +12476,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="3">
         <v>2265</v>
@@ -12415,7 +12487,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" s="3">
         <v>1789</v>
@@ -12426,7 +12498,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" s="3">
         <v>1533</v>
@@ -12437,7 +12509,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B20" s="3">
         <v>417</v>
@@ -12448,7 +12520,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B21" s="3">
         <v>417</v>
@@ -12459,7 +12531,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B22" s="3">
         <v>733</v>
@@ -12470,7 +12542,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B23" s="3">
         <v>2033</v>
@@ -12481,7 +12553,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B24" s="3">
         <v>417</v>
@@ -12492,7 +12564,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B25" s="3">
         <v>765</v>
@@ -12503,7 +12575,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B26" s="3">
         <v>733</v>
@@ -12514,7 +12586,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" s="3">
         <v>2265</v>
@@ -12525,7 +12597,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="3">
         <v>2465</v>
@@ -12536,7 +12608,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B29" s="3">
         <v>733</v>
@@ -12547,7 +12619,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B30" s="3">
         <v>1065</v>
@@ -12558,7 +12630,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B31" s="3">
         <v>1065</v>
@@ -12569,7 +12641,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B32" s="3">
         <v>1933</v>
@@ -12580,7 +12652,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B33" s="3">
         <v>649</v>
@@ -12591,7 +12663,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B34" s="3">
         <v>649</v>
@@ -12602,7 +12674,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B35" s="3">
         <v>1265</v>
@@ -12613,7 +12685,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B36" s="3">
         <v>733</v>
@@ -12624,7 +12696,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B37" s="3">
         <v>417</v>
@@ -12635,7 +12707,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B38" s="3">
         <v>733</v>
@@ -12646,7 +12718,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B39" s="3">
         <v>417</v>
@@ -12657,7 +12729,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B40" s="3">
         <v>417</v>
@@ -12668,7 +12740,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B41" s="3">
         <v>733</v>
@@ -12679,7 +12751,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B42" s="3">
         <v>617</v>
@@ -12690,7 +12762,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B43" s="3">
         <v>617</v>
@@ -12701,7 +12773,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B44" s="3">
         <v>1065</v>
@@ -12712,7 +12784,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B45" s="3">
         <v>733</v>
@@ -12723,7 +12795,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B46" s="3">
         <v>733</v>
@@ -12734,7 +12806,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B47" s="3">
         <v>733</v>
@@ -12745,7 +12817,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" s="3">
         <v>1489</v>
@@ -12756,7 +12828,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B49" s="3">
         <v>465</v>
@@ -12767,7 +12839,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B50" s="3">
         <v>733</v>
@@ -12778,7 +12850,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B51" s="3">
         <v>765</v>
@@ -12789,7 +12861,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B52" s="3">
         <v>765</v>
@@ -12800,7 +12872,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B53" s="3">
         <v>733</v>
@@ -12811,7 +12883,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B54" s="3">
         <v>733</v>
@@ -12822,7 +12894,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B55" s="3">
         <v>733</v>
@@ -12833,7 +12905,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B56" s="3">
         <v>733</v>
@@ -12844,7 +12916,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B57" s="3">
         <v>733</v>
@@ -12855,7 +12927,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B58" s="3">
         <v>733</v>
@@ -12866,7 +12938,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B59" s="3">
         <v>733</v>
@@ -12877,7 +12949,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B60" s="3">
         <v>1789</v>
@@ -12888,7 +12960,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B61" s="3">
         <v>765</v>
@@ -12899,7 +12971,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B62" s="3">
         <v>765</v>
@@ -12910,7 +12982,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B63" s="3">
         <v>765</v>
@@ -12921,7 +12993,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B64" s="3">
         <v>765</v>
@@ -12932,7 +13004,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B65" s="3">
         <v>765</v>
@@ -12943,7 +13015,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B66" s="3">
         <v>765</v>
@@ -12954,7 +13026,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B67" s="3">
         <v>765</v>
@@ -12965,7 +13037,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B68" s="3">
         <v>765</v>
@@ -12976,7 +13048,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B69" s="3">
         <v>765</v>
@@ -12987,7 +13059,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B70" s="3">
         <v>765</v>
@@ -12998,7 +13070,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B71" s="3">
         <v>1965</v>
@@ -13009,7 +13081,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B72" s="3">
         <v>1865</v>
@@ -13020,7 +13092,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B73" s="3">
         <v>1865</v>
@@ -13031,7 +13103,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B74" s="3">
         <v>1865</v>
@@ -13042,7 +13114,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B75" s="3">
         <v>417</v>
@@ -13053,7 +13125,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B76" s="3">
         <v>1865</v>
@@ -13064,7 +13136,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B77" s="3">
         <v>1865</v>
@@ -13075,7 +13147,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B78" s="3">
         <v>1865</v>
@@ -13086,7 +13158,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B79" s="3">
         <v>1665</v>
@@ -13097,7 +13169,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B80" s="3">
         <v>1865</v>
@@ -13108,7 +13180,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B81" s="3">
         <v>1865</v>
@@ -13119,7 +13191,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B82" s="3">
         <v>1865</v>
@@ -13130,7 +13202,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B83" s="3">
         <v>1865</v>
@@ -13141,7 +13213,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B84" s="3">
         <v>1765</v>
@@ -13152,7 +13224,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B85" s="3">
         <v>1765</v>
@@ -13163,7 +13235,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B86" s="3">
         <v>1765</v>
@@ -13174,7 +13246,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B87" s="3">
         <v>1265</v>
@@ -13185,7 +13257,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88" s="3">
         <v>2033</v>
@@ -13196,7 +13268,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89" s="3">
         <v>2033</v>
@@ -13207,7 +13279,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B90" s="3">
         <v>733</v>
@@ -13218,7 +13290,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B91" s="3">
         <v>417</v>
@@ -13229,7 +13301,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B92" s="3">
         <v>1265</v>
@@ -13240,7 +13312,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B93" s="3">
         <v>765</v>
@@ -13251,7 +13323,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B94" s="3">
         <v>765</v>
@@ -13262,7 +13334,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B95" s="3">
         <v>765</v>
@@ -13273,7 +13345,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B96" s="3">
         <v>765</v>
@@ -13284,7 +13356,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B97" s="3">
         <v>733</v>
@@ -13295,7 +13367,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B98" s="3">
         <v>465</v>
@@ -13306,7 +13378,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B99" s="3">
         <v>617</v>
@@ -13317,7 +13389,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B100" s="3">
         <v>733</v>
@@ -13328,7 +13400,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B101" s="3">
         <v>765</v>
@@ -13339,7 +13411,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B102" s="3">
         <v>733</v>
@@ -13350,7 +13422,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B103" s="3">
         <v>765</v>
@@ -13361,7 +13433,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B104" s="3">
         <v>433</v>
@@ -13372,7 +13444,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B105" s="3">
         <v>417</v>
@@ -13383,7 +13455,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B106" s="3">
         <v>733</v>
@@ -13394,7 +13466,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B107" s="3">
         <v>733</v>
@@ -13405,7 +13477,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B108" s="3">
         <v>433</v>
@@ -13416,7 +13488,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B109" s="3">
         <v>765</v>
@@ -13427,7 +13499,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B110" s="3">
         <v>765</v>
@@ -13438,7 +13510,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B111" s="3">
         <v>765</v>
@@ -13449,7 +13521,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B112" s="3">
         <v>733</v>
@@ -13460,7 +13532,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B113" s="3">
         <v>733</v>
@@ -13471,7 +13543,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B114" s="3">
         <v>733</v>
@@ -13482,7 +13554,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B115" s="3">
         <v>1233</v>
@@ -13493,7 +13565,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B116" s="3">
         <v>433</v>
@@ -13504,7 +13576,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B117" s="3">
         <v>433</v>
@@ -13515,7 +13587,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B118" s="3">
         <v>417</v>
@@ -13526,7 +13598,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B119" s="3">
         <v>733</v>
@@ -13537,7 +13609,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B120" s="3">
         <v>733</v>
@@ -13548,7 +13620,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B121" s="3">
         <v>2065</v>
@@ -13559,7 +13631,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B122" s="3">
         <v>2065</v>
@@ -13570,7 +13642,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B123" s="3">
         <v>2065</v>
@@ -13581,7 +13653,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B124" s="3">
         <v>733</v>
@@ -13592,7 +13664,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B125" s="3">
         <v>717</v>
@@ -13603,7 +13675,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B126" s="3">
         <v>765</v>
@@ -13614,7 +13686,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B127" s="3">
         <v>933</v>
@@ -13625,7 +13697,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B128" s="3">
         <v>417</v>
@@ -13636,7 +13708,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B129" s="3">
         <v>765</v>
@@ -13647,7 +13719,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B130" s="3">
         <v>417</v>
@@ -13658,7 +13730,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B131" s="3">
         <v>433</v>
@@ -13669,7 +13741,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B132" s="3">
         <v>733</v>
@@ -13680,7 +13752,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B133" s="3">
         <v>1233</v>
@@ -13691,7 +13763,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B134" s="3">
         <v>1233</v>
@@ -13702,7 +13774,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B135" s="3">
         <v>1233</v>
@@ -13713,7 +13785,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B136" s="3">
         <v>1233</v>
@@ -13724,7 +13796,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B137" s="3">
         <v>1233</v>
@@ -13735,7 +13807,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B138" s="3">
         <v>765</v>
@@ -13746,7 +13818,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B139" s="3">
         <v>765</v>
@@ -13757,7 +13829,7 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B140" s="3">
         <v>733</v>
@@ -13768,7 +13840,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B141" s="3">
         <v>1265</v>
@@ -13779,7 +13851,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B142" s="3">
         <v>1265</v>
@@ -13790,7 +13862,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B143" s="3">
         <v>1265</v>
@@ -13801,7 +13873,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B144" s="3">
         <v>1265</v>
@@ -13812,7 +13884,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B145" s="3">
         <v>1265</v>
@@ -13823,7 +13895,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B146" s="3">
         <v>1265</v>
@@ -13834,7 +13906,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B147" s="3">
         <v>1265</v>
@@ -13845,7 +13917,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B148" s="3">
         <v>1265</v>
@@ -13856,7 +13928,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B149" s="3">
         <v>1265</v>
@@ -13867,7 +13939,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B150" s="3">
         <v>1265</v>
@@ -13878,7 +13950,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B151" s="3">
         <v>1265</v>
@@ -13889,7 +13961,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B152" s="3">
         <v>733</v>
@@ -13900,7 +13972,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B153" s="3">
         <v>733</v>
@@ -13911,7 +13983,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B154" s="3">
         <v>733</v>
@@ -13922,7 +13994,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B155" s="3">
         <v>733</v>
@@ -13933,7 +14005,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B156" s="3">
         <v>733</v>
@@ -13944,7 +14016,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B157" s="3">
         <v>733</v>
@@ -13955,7 +14027,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B158" s="3">
         <v>417</v>
@@ -13966,7 +14038,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B159" s="3">
         <v>733</v>
@@ -13977,7 +14049,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B160" s="3">
         <v>1233</v>
@@ -13988,7 +14060,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B161" s="3">
         <v>1233</v>
@@ -13999,7 +14071,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B162" s="3">
         <v>733</v>
@@ -14010,7 +14082,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B163" s="3">
         <v>417</v>
@@ -14021,7 +14093,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B164" s="3">
         <v>417</v>
@@ -14032,7 +14104,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B165" s="3">
         <v>717</v>
@@ -14043,7 +14115,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B166" s="3">
         <v>717</v>
@@ -14054,7 +14126,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B167" s="3">
         <v>717</v>
@@ -14065,7 +14137,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B168" s="3">
         <v>717</v>
@@ -14076,7 +14148,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B169" s="3">
         <v>717</v>
@@ -14087,7 +14159,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B170" s="3">
         <v>717</v>
@@ -14098,7 +14170,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B171" s="3">
         <v>717</v>
@@ -14109,7 +14181,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B172" s="3">
         <v>717</v>
@@ -14120,7 +14192,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B173" s="3">
         <v>717</v>
@@ -14131,7 +14203,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B174" s="3">
         <v>317</v>
@@ -14142,7 +14214,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B175" s="3">
         <v>717</v>
@@ -14153,7 +14225,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B176" s="3">
         <v>717</v>
@@ -14164,7 +14236,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B177" s="3">
         <v>717</v>
@@ -14175,7 +14247,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B178" s="3">
         <v>717</v>
@@ -14186,7 +14258,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B179" s="3">
         <v>717</v>
@@ -14197,7 +14269,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B180" s="3">
         <v>717</v>
@@ -14208,7 +14280,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B181" s="3">
         <v>717</v>
@@ -14219,7 +14291,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B182" s="3">
         <v>717</v>
@@ -14230,7 +14302,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B183" s="3">
         <v>717</v>
@@ -14241,7 +14313,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B184" s="3">
         <v>317</v>
@@ -14252,7 +14324,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B185" s="3">
         <v>717</v>
@@ -14263,7 +14335,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B186" s="3">
         <v>717</v>
@@ -14274,7 +14346,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B187" s="3">
         <v>1233</v>
@@ -14285,7 +14357,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B188" s="3">
         <v>1233</v>
@@ -14296,7 +14368,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B189" s="3">
         <v>1233</v>
@@ -14307,7 +14379,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B190" s="3">
         <v>1233</v>
@@ -14318,7 +14390,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B191" s="3">
         <v>1233</v>
@@ -14329,7 +14401,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B192" s="3">
         <v>765</v>
@@ -14340,7 +14412,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B193" s="3">
         <v>1233</v>
@@ -14351,7 +14423,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B194" s="3">
         <v>1233</v>
@@ -14362,7 +14434,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B195" s="3">
         <v>1233</v>
@@ -14373,7 +14445,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B196" s="3">
         <v>1233</v>
@@ -14384,7 +14456,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B197" s="3">
         <v>1233</v>
@@ -14395,7 +14467,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B198" s="3">
         <v>733</v>
@@ -14406,7 +14478,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B199" s="3">
         <v>733</v>
@@ -14417,7 +14489,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B200" s="3">
         <v>1033</v>
@@ -14428,7 +14500,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B201" s="3">
         <v>1217</v>
@@ -14439,7 +14511,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B202" s="3">
         <v>1233</v>
@@ -14450,7 +14522,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B203" s="3">
         <v>1233</v>
@@ -14461,7 +14533,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B204" s="3">
         <v>417</v>
@@ -14472,7 +14544,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B205" s="3">
         <v>1233</v>
@@ -14483,7 +14555,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B206" s="3">
         <v>1233</v>
@@ -14494,7 +14566,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B207" s="3">
         <v>317</v>
@@ -14505,7 +14577,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B208" s="3">
         <v>317</v>
@@ -14516,7 +14588,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B209" s="3">
         <v>717</v>
@@ -14527,7 +14599,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B210" s="3">
         <v>717</v>
@@ -14538,7 +14610,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B211" s="3">
         <v>717</v>
@@ -14549,7 +14621,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B212" s="3">
         <v>417</v>
@@ -14560,7 +14632,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B213" s="3">
         <v>433</v>
@@ -14571,7 +14643,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B214" s="3">
         <v>733</v>
@@ -14582,7 +14654,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B215" s="3">
         <v>1233</v>
@@ -14593,7 +14665,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B216" s="3">
         <v>1233</v>
@@ -14604,7 +14676,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B217" s="3">
         <v>1233</v>
@@ -14615,7 +14687,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B218" s="3">
         <v>733</v>
@@ -14626,7 +14698,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B219" s="3">
         <v>733</v>
@@ -14637,7 +14709,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B220" s="3">
         <v>1033</v>
@@ -14648,7 +14720,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B221" s="3">
         <v>733</v>
@@ -14659,7 +14731,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B222" s="3">
         <v>1565</v>
@@ -14670,7 +14742,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B223" s="3">
         <v>733</v>
@@ -14681,7 +14753,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B224" s="3">
         <v>765</v>
@@ -14692,7 +14764,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B225" s="3">
         <v>433</v>
@@ -14703,7 +14775,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B226" s="3">
         <v>433</v>
@@ -14714,7 +14786,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B227" s="3">
         <v>633</v>
@@ -14725,7 +14797,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B228" s="3">
         <v>765</v>
@@ -14736,7 +14808,7 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B229" s="3">
         <v>765</v>
@@ -14747,7 +14819,7 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B230" s="3">
         <v>417</v>
